--- a/3sem/Econom/4/Пятерочка_отчетность.xlsx
+++ b/3sem/Econom/4/Пятерочка_отчетность.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seron\Desktop\study\3sem\Econom\4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{4812933A-6EB8-4978-8810-5A7FA300CA64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8012EB4E-80CA-4EB2-B5C4-06C21755ADFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Баланс" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>Наименование показателя</t>
   </si>
@@ -98,12 +98,6 @@
     <t>Чистая прибыль (убыток)</t>
   </si>
   <si>
-    <t>СПРАВОЧНО</t>
-  </si>
-  <si>
-    <t>Совокупный финансовый результат периода</t>
-  </si>
-  <si>
     <t>Основные средства</t>
   </si>
   <si>
@@ -115,11 +109,14 @@
   <si>
     <t>Оборотные активы всего</t>
   </si>
+  <si>
+    <t>Скорее всего, после 2011 г. организация зарегистрировалась за границей и данных по налогам после 2011г. нет. По Российским данным организация не имеет убытков и с каждым годом, кроме 2013г., увеличивает свою прибыль.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="22">
     <font>
       <sz val="11"/>
@@ -301,7 +298,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -496,6 +493,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -712,7 +715,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -741,9 +744,6 @@
     <xf numFmtId="0" fontId="20" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="19" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -752,33 +752,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -797,6 +770,40 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="36" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1858,6 +1865,1614 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Отчет о прибыли'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Выручка</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Отчет о прибыли'!$B$2:$J$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Отчет о прибыли'!$B$3:$J$3</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2378</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1794</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2541</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2877</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3432</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5456</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6627</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8707</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11219</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1DC4-423E-8594-CDD003122615}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1341716976"/>
+        <c:axId val="1340823280"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1341716976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1340823280"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1340823280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1341716976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Отчет о прибыли'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Себестоимость продаж</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Отчет о прибыли'!$B$2:$J$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Отчет о прибыли'!$B$4:$J$4</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>-2350</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1769</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2526</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2837</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3382</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-5400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-6562</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-8587</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-11094</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E3FD-45B5-A32A-7807CCCDED44}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1364024176"/>
+        <c:axId val="1334614320"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1364024176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1334614320"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1334614320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1364024176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Отчет о прибыли'!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Прибыль (убыток) от продаж</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Отчет о прибыли'!$B$2:$J$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Отчет о прибыли'!$B$6:$J$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E1A3-4DA7-999B-C64392AADDAF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1364428688"/>
+        <c:axId val="1327484128"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1364428688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1327484128"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1327484128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1364428688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Отчет о прибыли'!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Прибыль (убыток) до налогообложения</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Отчет о прибыли'!$B$2:$J$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Отчет о прибыли'!$B$7:$J$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A649-4ACC-A1F0-EF6184D52DB7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1364991600"/>
+        <c:axId val="1363303056"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1364991600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1363303056"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1363303056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1364991600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Отчет о прибыли'!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Чистая прибыль (убыток)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Отчет о прибыли'!$B$2:$J$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Отчет о прибыли'!$B$10:$J$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-845C-4F89-8FC0-22E138F1AA82}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1368870144"/>
+        <c:axId val="1221169088"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1368870144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1221169088"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1221169088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1368870144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1978,6 +3593,206 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -3147,6 +4962,2573 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3605,6 +7987,191 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB46882F-7D2B-4839-85BA-396D2D932397}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA16AB15-66E3-426D-A35B-13F0119A09ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{644E89B0-44F4-4535-8D93-FF463F91A03E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Диаграмма 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16CF72BD-9BDB-467A-A450-2E641927237B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Диаграмма 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{917BD120-6C66-4D93-B370-7021DFAE13BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3909,7 +8476,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3960,69 +8527,69 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="29" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A2" s="20" t="s">
+    <row r="2" spans="1:10" s="19" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="22"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="25"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="16"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="22"/>
     </row>
-    <row r="4" spans="1:10" s="28" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A4" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="27">
+    <row r="4" spans="1:10" s="18" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A4" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="17">
         <v>703</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C4" s="17">
         <v>649</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D4" s="17">
         <v>595</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E4" s="17">
         <v>541</v>
       </c>
-      <c r="F4" s="27">
+      <c r="F4" s="17">
         <v>509</v>
       </c>
-      <c r="G4" s="27">
+      <c r="G4" s="17">
         <v>467</v>
       </c>
-      <c r="H4" s="27">
+      <c r="H4" s="17">
         <v>428</v>
       </c>
-      <c r="I4" s="27">
+      <c r="I4" s="17">
         <v>425</v>
       </c>
-      <c r="J4" s="27">
+      <c r="J4" s="17">
         <v>372</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1">
       <c r="A5" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B5" s="4">
         <v>703</v>
@@ -4053,18 +8620,18 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="16"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="22"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1">
       <c r="A7" s="3" t="s">
@@ -4164,7 +8731,7 @@
     </row>
     <row r="10" spans="1:10" ht="15.75" thickBot="1">
       <c r="A10" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B10" s="8">
         <v>295</v>
@@ -4195,64 +8762,64 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="25">
+      <c r="B11" s="15">
         <v>998</v>
       </c>
-      <c r="C11" s="24">
+      <c r="C11" s="14">
         <v>1001</v>
       </c>
-      <c r="D11" s="25">
+      <c r="D11" s="15">
         <v>960</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="14">
         <v>1110</v>
       </c>
-      <c r="F11" s="24">
+      <c r="F11" s="14">
         <v>1062</v>
       </c>
-      <c r="G11" s="24">
+      <c r="G11" s="14">
         <v>1015</v>
       </c>
-      <c r="H11" s="24">
+      <c r="H11" s="14">
         <v>1053</v>
       </c>
-      <c r="I11" s="24">
+      <c r="I11" s="14">
         <v>1095</v>
       </c>
-      <c r="J11" s="24">
+      <c r="J11" s="14">
         <v>1117</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="29" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A12" s="20" t="s">
+    <row r="12" spans="1:10" s="19" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A12" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="22"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="25"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="16"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="22"/>
     </row>
     <row r="14" spans="1:10" ht="48.75" thickBot="1">
       <c r="A14" s="6" t="s">
@@ -4351,36 +8918,36 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="16"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="22"/>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="16"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="22"/>
     </row>
     <row r="19" spans="1:10" ht="15.75" thickBot="1">
       <c r="A19" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B19" s="5">
         <v>0</v>
@@ -4475,34 +9042,34 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B22" s="12">
         <v>998</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="11">
         <v>1001</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="12">
         <v>960</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="11">
         <v>1110</v>
       </c>
-      <c r="F22" s="12">
+      <c r="F22" s="11">
         <v>1062</v>
       </c>
-      <c r="G22" s="12">
+      <c r="G22" s="11">
         <v>1015</v>
       </c>
-      <c r="H22" s="12">
+      <c r="H22" s="11">
         <v>1053</v>
       </c>
-      <c r="I22" s="12">
+      <c r="I22" s="11">
         <v>1095</v>
       </c>
-      <c r="J22" s="12">
+      <c r="J22" s="11">
         <v>1117</v>
       </c>
     </row>
@@ -4522,11 +9089,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4567,67 +9134,67 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:10" s="28" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A3" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="27">
         <v>2378</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="27">
         <v>1794</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="27">
         <v>2541</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="27">
         <v>2877</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="27">
         <v>3432</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="27">
         <v>5456</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="27">
         <v>6627</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="27">
         <v>8707</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="27">
         <v>11219</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:10" s="28" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A4" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="27">
         <v>-2350</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="27">
         <v>-1769</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="27">
         <v>-2526</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="27">
         <v>-2837</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="27">
         <v>-3382</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="27">
         <v>-5400</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="27">
         <v>-6562</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="27">
         <v>-8587</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="27">
         <v>-11094</v>
       </c>
     </row>
@@ -4663,67 +9230,67 @@
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="24.75" thickBot="1">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:10" s="28" customFormat="1" ht="24.75" thickBot="1">
+      <c r="A6" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="29">
         <v>28</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="29">
         <v>25</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="29">
         <v>15</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="29">
         <v>40</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="29">
         <v>50</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="29">
         <v>56</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="29">
         <v>65</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="29">
         <v>120</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="29">
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="24.75" thickBot="1">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:10" s="28" customFormat="1" ht="24.75" thickBot="1">
+      <c r="A7" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="29">
         <v>28</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="29">
         <v>25</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="29">
         <v>15</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="29">
         <v>40</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="29">
         <v>50</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="29">
         <v>56</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="29">
         <v>65</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="29">
         <v>120</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="29">
         <v>125</v>
       </c>
     </row>
@@ -4791,85 +9358,88 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:10" s="28" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A10" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="30">
         <v>0</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="29">
         <v>25</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="29">
         <v>15</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="29">
         <v>40</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="29">
         <v>50</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="29">
         <v>56</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="29">
         <v>65</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="29">
         <v>120</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="29">
         <v>125</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A11" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
+    <row r="11" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="12" spans="1:10" ht="15" customHeight="1">
+      <c r="A12" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
     </row>
-    <row r="12" spans="1:10" ht="24.75" thickBot="1">
-      <c r="A12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="5">
-        <v>0</v>
-      </c>
-      <c r="C12" s="4">
-        <v>25</v>
-      </c>
-      <c r="D12" s="4">
-        <v>15</v>
-      </c>
-      <c r="E12" s="4">
-        <v>40</v>
-      </c>
-      <c r="F12" s="4">
-        <v>50</v>
-      </c>
-      <c r="G12" s="4">
-        <v>56</v>
-      </c>
-      <c r="H12" s="4">
-        <v>65</v>
-      </c>
-      <c r="I12" s="4">
-        <v>120</v>
-      </c>
-      <c r="J12" s="4">
-        <v>125</v>
-      </c>
+    <row r="13" spans="1:10">
+      <c r="A13" s="31"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="31"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="31"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="31"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="31"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A12:E17"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>